--- a/L2-L3_Config_auto/Device_List.xlsx
+++ b/L2-L3_Config_auto/Device_List.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pavan\Downloads\nirajpyadav-python-orchestration-e47dc99a1b57\nirajpyadav-python-orchestration-e47dc99a1b57\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ME\Github_Network-Scripting\L2-L3_Config_auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="5340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="5340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Name</t>
   </si>
@@ -39,90 +39,6 @@
   </si>
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>192.168.0.253</t>
-  </si>
-  <si>
-    <t>pynet</t>
-  </si>
-  <si>
-    <t>elet6300telnet</t>
-  </si>
-  <si>
-    <t>elet6300</t>
-  </si>
-  <si>
-    <t>rtr-1</t>
-  </si>
-  <si>
-    <t>192.168.0.254</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>telnet</t>
-  </si>
-  <si>
-    <t>P@ssw0rd</t>
-  </si>
-  <si>
-    <t>rtr-2</t>
-  </si>
-  <si>
-    <t>10.88.17.23</t>
-  </si>
-  <si>
-    <t>root</t>
-  </si>
-  <si>
-    <t>testtelnet</t>
-  </si>
-  <si>
-    <t>ekf9Seirmf</t>
-  </si>
-  <si>
-    <t>sw-1</t>
-  </si>
-  <si>
-    <t>172.21.16.10</t>
-  </si>
-  <si>
-    <t>netprogtelnet</t>
-  </si>
-  <si>
-    <t>asdofoI97u</t>
-  </si>
-  <si>
-    <t>cisco3500</t>
-  </si>
-  <si>
-    <t>172.21.16.17</t>
-  </si>
-  <si>
-    <t>npdg</t>
-  </si>
-  <si>
-    <t>0f9AmingLO</t>
-  </si>
-  <si>
-    <t>cat3548</t>
-  </si>
-  <si>
-    <t>10.10.2.100</t>
-  </si>
-  <si>
-    <t>nnpe</t>
-  </si>
-  <si>
-    <t>telnetcisco</t>
-  </si>
-  <si>
-    <t>Weci86@</t>
   </si>
 </sst>
 </file>
@@ -269,23 +185,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -321,23 +220,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -493,19 +375,19 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E7"/>
+      <selection activeCell="A2" sqref="A2:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" customWidth="1"/>
-    <col min="4" max="4" width="16.54296875" customWidth="1"/>
-    <col min="5" max="5" width="13.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,113 +404,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>32</v>
-      </c>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E7" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" copies="5" r:id="rId1"/>
 </worksheet>
 </file>